--- a/examples/TankSizing/continuous/TankSizingContinuous_results.xlsx
+++ b/examples/TankSizing/continuous/TankSizingContinuous_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40120" yWindow="5660" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="38880" yWindow="1240" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>#Scenarios</t>
   </si>
@@ -103,12 +103,30 @@
   </si>
   <si>
     <t>Algorithm=Lagrangean decomposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improved Formulation </t>
+  </si>
+  <si>
+    <t>Solver=BARON</t>
+  </si>
+  <si>
+    <t>Solver=Antigone</t>
+  </si>
+  <si>
+    <t>Solver=SCIP</t>
+  </si>
+  <si>
+    <t>&gt;10,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -201,7 +219,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -212,6 +230,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -491,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,146 +701,381 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="5">
         <v>4</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="5">
         <v>5</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="5">
         <v>9</v>
       </c>
-      <c r="I18">
+      <c r="H18" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>1.26738</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="5">
         <v>1.2740800000000001</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="5">
         <v>1.24444</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="5">
         <v>1.1838500000000001</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="5">
         <v>1.1332</v>
       </c>
-      <c r="H19">
+      <c r="G19" s="5">
         <v>1.1091800000000001</v>
       </c>
-      <c r="I19">
+      <c r="H19" s="5">
         <v>1.0206999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C20">
-        <v>1.26864</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="5">
         <v>1.27535</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="5">
         <v>1.27298</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="5">
         <v>1.27302</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="5">
         <v>1.27268</v>
       </c>
-      <c r="H20">
+      <c r="G20" s="5">
         <v>1.2753300000000001</v>
       </c>
-      <c r="I20">
+      <c r="H20" s="5">
         <v>1.27658</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <f>(C20-C19)/C20</f>
-        <v>9.9318955732125643E-4</v>
-      </c>
-      <c r="D21" s="2">
+        <v>9.9580507311709137E-4</v>
+      </c>
+      <c r="D21" s="6">
         <f>(D20-D19)/D20</f>
-        <v>9.9580507311709137E-4</v>
-      </c>
-      <c r="E21" s="2">
+        <v>2.2419833775864515E-2</v>
+      </c>
+      <c r="E21" s="6">
         <f>(E20-E19)/E20</f>
-        <v>2.2419833775864515E-2</v>
-      </c>
-      <c r="F21" s="2">
+        <v>7.0046032269720795E-2</v>
+      </c>
+      <c r="F21" s="6">
         <f>(F20-F19)/F20</f>
-        <v>7.0046032269720795E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <f>(G20-G19)/G20</f>
         <v>0.10959549926140118</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" ref="H21:I21" si="0">(H20-H19)/H20</f>
+      <c r="G21" s="6">
+        <f t="shared" ref="G21:H21" si="0">(G20-G19)/G20</f>
         <v>0.13028000595924194</v>
       </c>
-      <c r="I21" s="2">
+      <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>0.20044180544893395</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
+        <v>1117</v>
+      </c>
+      <c r="D22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H22" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>1117</v>
-      </c>
-      <c r="E22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>10000</v>
+      <c r="D24" s="5">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5">
+        <v>4</v>
+      </c>
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5">
+        <v>9</v>
+      </c>
+      <c r="H24" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1.2393590000000001</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1.1710910000000001</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1.133653</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1.101183</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1.2740590000000001</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1.275307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1.2753509999999999</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1.2729809999999999</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1.273023</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1.272683</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1.275334</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1.2765839999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="6">
+        <f>(C26-C25)/C26</f>
+        <v>2.8221250463597712E-2</v>
+      </c>
+      <c r="D27" s="6">
+        <f>(D26-D25)/D26</f>
+        <v>8.0040471931631205E-2</v>
+      </c>
+      <c r="E27" s="6">
+        <f>(E26-E25)/E26</f>
+        <v>0.10947956164185564</v>
+      </c>
+      <c r="F27" s="6">
+        <f>(F26-F25)/F26</f>
+        <v>0.13475468753805936</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" ref="G27:H27" si="1">(G26-G25)/G26</f>
+        <v>9.9973810782110037E-4</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0003258696646461E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="10">
+        <v>3</v>
+      </c>
+      <c r="H28" s="10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>9</v>
+      </c>
+      <c r="H30" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1.2740785133786501</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1.27170923540158</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1.2606627842853599</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1.2423162461289401</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1.2160356666668699</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1.1214822524506001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="11">
+        <v>1.2753509750173799</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1.27298090154524</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1.27302303173636</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1.27268283173785</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1.2753342592185599</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1.2765840448485399</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6">
+        <f>(C32-C31)/C32</f>
+        <v>9.9773447753275044E-4</v>
+      </c>
+      <c r="D33" s="6">
+        <f>(D32-D31)/D32</f>
+        <v>9.9896718176713316E-4</v>
+      </c>
+      <c r="E33" s="6">
+        <f>(E32-E31)/E32</f>
+        <v>9.7093667143956577E-3</v>
+      </c>
+      <c r="F33" s="6">
+        <f>(F32-F31)/F32</f>
+        <v>2.3860293273104276E-2</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" ref="G33:H33" si="2">(G32-G31)/G32</f>
+        <v>4.6496510325084693E-2</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.12149751755384182</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5">
+        <v>404</v>
+      </c>
+      <c r="D34" s="10">
+        <v>7960</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -888,7 +1143,7 @@
         <v>1.2743</v>
       </c>
       <c r="E3" s="6">
-        <f>(C3-D3)/C3</f>
+        <f t="shared" ref="E3:E8" si="0">(C3-D3)/C3</f>
         <v>9.8780143623196002E-4</v>
       </c>
       <c r="F3" s="5">
@@ -915,7 +1170,7 @@
         <v>1.2721100000000001</v>
       </c>
       <c r="E4" s="6">
-        <f>(C4-D4)/C4</f>
+        <f t="shared" si="0"/>
         <v>9.2673310871832721E-4</v>
       </c>
       <c r="F4" s="5">
@@ -942,7 +1197,7 @@
         <v>1.2719800000000001</v>
       </c>
       <c r="E5" s="6">
-        <f>(C5-D5)/C5</f>
+        <f t="shared" si="0"/>
         <v>9.6606215785286192E-4</v>
       </c>
       <c r="F5" s="5">
@@ -969,7 +1224,7 @@
         <v>1.27182</v>
       </c>
       <c r="E6" s="6">
-        <f>(C6-D6)/C6</f>
+        <f t="shared" si="0"/>
         <v>7.9350738118991182E-4</v>
       </c>
       <c r="F6" s="5">
@@ -996,7 +1251,7 @@
         <v>1.27441</v>
       </c>
       <c r="E7" s="6">
-        <f>(C7-D7)/C7</f>
+        <f t="shared" si="0"/>
         <v>8.7806637240990786E-4</v>
       </c>
       <c r="F7" s="5">
@@ -1023,7 +1278,7 @@
         <v>1.27569</v>
       </c>
       <c r="E8" s="6">
-        <f>(C8-D8)/C8</f>
+        <f t="shared" si="0"/>
         <v>8.1458099989812249E-4</v>
       </c>
       <c r="F8" s="5">
@@ -1091,7 +1346,7 @@
         <v>1.2743</v>
       </c>
       <c r="E14" s="6">
-        <f>(C14-D14)/C14</f>
+        <f t="shared" ref="E14:E19" si="1">(C14-D14)/C14</f>
         <v>9.8780143623196002E-4</v>
       </c>
       <c r="F14" s="5">
@@ -1118,7 +1373,7 @@
         <v>1.2722599999999999</v>
       </c>
       <c r="E15" s="6">
-        <f>(C15-D15)/C15</f>
+        <f t="shared" si="1"/>
         <v>9.4231463885798526E-4</v>
       </c>
       <c r="F15" s="5">
@@ -1145,7 +1400,7 @@
         <v>1.2719800000000001</v>
       </c>
       <c r="E16" s="6">
-        <f>(C16-D16)/C16</f>
+        <f t="shared" si="1"/>
         <v>9.6606215785286192E-4</v>
       </c>
       <c r="F16" s="5">
@@ -1172,7 +1427,7 @@
         <v>1.27182</v>
       </c>
       <c r="E17" s="6">
-        <f>(C17-D17)/C17</f>
+        <f t="shared" si="1"/>
         <v>7.9350738118991182E-4</v>
       </c>
       <c r="F17" s="5">
@@ -1199,7 +1454,7 @@
         <v>1.27441</v>
       </c>
       <c r="E18" s="6">
-        <f>(C18-D18)/C18</f>
+        <f t="shared" si="1"/>
         <v>8.7806637240990786E-4</v>
       </c>
       <c r="F18" s="5">
@@ -1226,7 +1481,7 @@
         <v>1.27569</v>
       </c>
       <c r="E19" s="6">
-        <f>(C19-D19)/C19</f>
+        <f t="shared" si="1"/>
         <v>8.1458099989812249E-4</v>
       </c>
       <c r="F19" s="5">
@@ -1304,7 +1559,7 @@
         <v>1.2743</v>
       </c>
       <c r="E25" s="6">
-        <f>(C25-D25)/C25</f>
+        <f t="shared" ref="E25:E30" si="2">(C25-D25)/C25</f>
         <v>9.8780143623196002E-4</v>
       </c>
       <c r="F25" s="5">
@@ -1329,7 +1584,7 @@
         <v>1.2722599999999999</v>
       </c>
       <c r="E26" s="6">
-        <f>(C26-D26)/C26</f>
+        <f t="shared" si="2"/>
         <v>9.4231463885798526E-4</v>
       </c>
       <c r="F26" s="5">
@@ -1354,7 +1609,7 @@
         <v>1.2719800000000001</v>
       </c>
       <c r="E27" s="6">
-        <f>(C27-D27)/C27</f>
+        <f t="shared" si="2"/>
         <v>9.6606215785286192E-4</v>
       </c>
       <c r="F27" s="5">
@@ -1379,7 +1634,7 @@
         <v>1.27182</v>
       </c>
       <c r="E28" s="6">
-        <f>(C28-D28)/C28</f>
+        <f t="shared" si="2"/>
         <v>7.9350738118991182E-4</v>
       </c>
       <c r="F28" s="5">
@@ -1404,7 +1659,7 @@
         <v>1.27441</v>
       </c>
       <c r="E29" s="6">
-        <f>(C29-D29)/C29</f>
+        <f t="shared" si="2"/>
         <v>8.7806637240990786E-4</v>
       </c>
       <c r="F29" s="5">
@@ -1429,7 +1684,7 @@
         <v>1.2757099999999999</v>
       </c>
       <c r="E30" s="6">
-        <f>(C30-D30)/C30</f>
+        <f t="shared" si="2"/>
         <v>8.2239418528149018E-4</v>
       </c>
       <c r="F30" s="5">

--- a/examples/TankSizing/continuous/TankSizingContinuous_results.xlsx
+++ b/examples/TankSizing/continuous/TankSizingContinuous_results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38880" yWindow="1240" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="31720" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DE" sheetId="1" r:id="rId1"/>
     <sheet name="BAB" sheetId="2" r:id="rId2"/>
+    <sheet name="presentation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>#Scenarios</t>
   </si>
@@ -118,6 +122,144 @@
   </si>
   <si>
     <t>&gt;10,000</t>
+  </si>
+  <si>
+    <t>BARON 18.5.8</t>
+  </si>
+  <si>
+    <t>ANTIGONE 1.1</t>
+  </si>
+  <si>
+    <t>SCIP 5.0</t>
+  </si>
+  <si>
+    <t>1117/0.1</t>
+  </si>
+  <si>
+    <t>-/2.2</t>
+  </si>
+  <si>
+    <t>-/7</t>
+  </si>
+  <si>
+    <t>-/11.0</t>
+  </si>
+  <si>
+    <t>-/13.0</t>
+  </si>
+  <si>
+    <t>-/2.8</t>
+  </si>
+  <si>
+    <t>-/8.0</t>
+  </si>
+  <si>
+    <t>-/13.5</t>
+  </si>
+  <si>
+    <t>3/0.1</t>
+  </si>
+  <si>
+    <t>87/0.1</t>
+  </si>
+  <si>
+    <t>404/0.1</t>
+  </si>
+  <si>
+    <t>7960/0.1</t>
+  </si>
+  <si>
+    <t>-/1.0</t>
+  </si>
+  <si>
+    <t>-/2.4</t>
+  </si>
+  <si>
+    <t>-/4.6</t>
+  </si>
+  <si>
+    <t>-/12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD(with cuts)+L </t>
+  </si>
+  <si>
+    <t>GBD+L</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>127/0.1
+47</t>
+  </si>
+  <si>
+    <t>239/0.1
+63</t>
+  </si>
+  <si>
+    <t>761/0.1
+141</t>
+  </si>
+  <si>
+    <t>365/0.1
+59</t>
+  </si>
+  <si>
+    <t>1250/0.1
+99</t>
+  </si>
+  <si>
+    <t>8681/0.1
+159</t>
+  </si>
+  <si>
+    <t>74/0.1
+47</t>
+  </si>
+  <si>
+    <t>277/0.1
+149</t>
+  </si>
+  <si>
+    <t>353/0.1
+141</t>
+  </si>
+  <si>
+    <t>188/0.1
+59</t>
+  </si>
+  <si>
+    <t>549/0.1
+99</t>
+  </si>
+  <si>
+    <t>4108/0.1
+159</t>
+  </si>
+  <si>
+    <t>61/0.1
+47</t>
+  </si>
+  <si>
+    <t>214/0.1
+149</t>
+  </si>
+  <si>
+    <t>270/0.1
+141</t>
+  </si>
+  <si>
+    <t>152/0.1
+59</t>
+  </si>
+  <si>
+    <t>436/0.1
+99</t>
+  </si>
+  <si>
+    <t>3219/0.1
+165</t>
   </si>
 </sst>
 </file>
@@ -127,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +312,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -213,13 +367,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -232,10 +423,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -602,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>9</v>
@@ -1087,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1761,4 +1993,207 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P13"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5</v>
+      </c>
+      <c r="G4" s="15">
+        <v>9</v>
+      </c>
+      <c r="H4" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>2</v>
+      </c>
+      <c r="L10" s="15">
+        <v>3</v>
+      </c>
+      <c r="M10" s="15">
+        <v>4</v>
+      </c>
+      <c r="N10" s="15">
+        <v>5</v>
+      </c>
+      <c r="O10" s="15">
+        <v>9</v>
+      </c>
+      <c r="P10" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="J11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="J12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="32" x14ac:dyDescent="0.2">
+      <c r="J13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples/TankSizing/continuous/TankSizingContinuous_results.xlsx
+++ b/examples/TankSizing/continuous/TankSizingContinuous_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="31720" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="31720" windowHeight="15800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DE" sheetId="1" r:id="rId1"/>
@@ -133,54 +133,6 @@
     <t>SCIP 5.0</t>
   </si>
   <si>
-    <t>1117/0.1</t>
-  </si>
-  <si>
-    <t>-/2.2</t>
-  </si>
-  <si>
-    <t>-/7</t>
-  </si>
-  <si>
-    <t>-/11.0</t>
-  </si>
-  <si>
-    <t>-/13.0</t>
-  </si>
-  <si>
-    <t>-/2.8</t>
-  </si>
-  <si>
-    <t>-/8.0</t>
-  </si>
-  <si>
-    <t>-/13.5</t>
-  </si>
-  <si>
-    <t>3/0.1</t>
-  </si>
-  <si>
-    <t>87/0.1</t>
-  </si>
-  <si>
-    <t>404/0.1</t>
-  </si>
-  <si>
-    <t>7960/0.1</t>
-  </si>
-  <si>
-    <t>-/1.0</t>
-  </si>
-  <si>
-    <t>-/2.4</t>
-  </si>
-  <si>
-    <t>-/4.6</t>
-  </si>
-  <si>
-    <t>-/12.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">GBD(with cuts)+L </t>
   </si>
   <si>
@@ -190,75 +142,123 @@
     <t>LD</t>
   </si>
   <si>
-    <t>127/0.1
+    <t>1117/0.1%</t>
+  </si>
+  <si>
+    <t>-/2.8%</t>
+  </si>
+  <si>
+    <t>404/0.1%</t>
+  </si>
+  <si>
+    <t>-/2.2%</t>
+  </si>
+  <si>
+    <t>-/8.0%</t>
+  </si>
+  <si>
+    <t>7960/0.1%</t>
+  </si>
+  <si>
+    <t>-/11.0%</t>
+  </si>
+  <si>
+    <t>-/1.0%</t>
+  </si>
+  <si>
+    <t>-/13.5%</t>
+  </si>
+  <si>
+    <t>-/2.4%</t>
+  </si>
+  <si>
+    <t>-/13.0%</t>
+  </si>
+  <si>
+    <t>3/0.1%</t>
+  </si>
+  <si>
+    <t>-/4.6%</t>
+  </si>
+  <si>
+    <t>87/0.1%</t>
+  </si>
+  <si>
+    <t>-/12.2%</t>
+  </si>
+  <si>
+    <t>127/0.1%
 47</t>
   </si>
   <si>
-    <t>239/0.1
+    <t>239/0.1%
 63</t>
   </si>
   <si>
-    <t>761/0.1
+    <t>761/0.1%
 141</t>
   </si>
   <si>
-    <t>365/0.1
+    <t>365/0.1%
 59</t>
   </si>
   <si>
-    <t>1250/0.1
+    <t>1250/0.1%
 99</t>
   </si>
   <si>
-    <t>8681/0.1
+    <t>8681/0.1%
 159</t>
   </si>
   <si>
-    <t>74/0.1
+    <t>74/0.1%
 47</t>
   </si>
   <si>
-    <t>277/0.1
+    <t>277/0.1%
 149</t>
   </si>
   <si>
-    <t>353/0.1
+    <t>353/0.1%
 141</t>
   </si>
   <si>
-    <t>188/0.1
+    <t>188/0.1%
 59</t>
   </si>
   <si>
-    <t>549/0.1
+    <t>549/0.1%
 99</t>
   </si>
   <si>
-    <t>4108/0.1
+    <t>4108/0.1%
 159</t>
   </si>
   <si>
-    <t>61/0.1
+    <t>61/0.1%
 47</t>
   </si>
   <si>
-    <t>214/0.1
+    <t>214/0.1%
 149</t>
   </si>
   <si>
-    <t>270/0.1
+    <t>-/7.0%</t>
+  </si>
+  <si>
+    <t>270/0.1%
 141</t>
   </si>
   <si>
-    <t>152/0.1
+    <t>152/0.1%
 59</t>
   </si>
   <si>
-    <t>436/0.1
+    <t>436/0.1%
 99</t>
   </si>
   <si>
-    <t>3219/0.1
+    <t>3219/0.1%
 165</t>
   </si>
 </sst>
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1999,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:P13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2037,22 +2037,22 @@
         <v>31</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
@@ -2060,22 +2060,22 @@
         <v>32</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
@@ -2083,22 +2083,22 @@
         <v>33</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="G7" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -2126,59 +2126,59 @@
     </row>
     <row r="11" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="J11" s="18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="M11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="N11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="O11" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="P11" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="J12" s="19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="K12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="M12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="N12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="O12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="P12" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="32" x14ac:dyDescent="0.2">
       <c r="J13" s="20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="K13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="22" t="s">
         <v>67</v>
